--- a/assets/help.xlsx
+++ b/assets/help.xlsx
@@ -237,7 +237,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -281,38 +287,38 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +653,7 @@
     <col min="7" max="7" style="11" width="152.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="70.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="74.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -693,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="70.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="74.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -716,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="70.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="74.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -739,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="47.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -762,7 +768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="91.2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="88.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
